--- a/medicine/Psychotrope/Vins_d'Argenteuil/Vins_d'Argenteuil.xlsx
+++ b/medicine/Psychotrope/Vins_d'Argenteuil/Vins_d'Argenteuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vins_d%27Argenteuil</t>
+          <t>Vins_d'Argenteuil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Il se comparait lui-même à un homme qui goûterait coup sur coup, les échantillons de tous les vins et ne distinguerait bientôt plus le château Margaux de l’Argenteuil »
 La citation est de Maupassant, on peut facilement juger de la réputation qu'avait, à la fin du XIXe siècle, le vin d'Argenteuil. Économique, produit sans grand soin, sans contrôle de l'alcoolémie (chaptalisation) et à partir des cépages les plus divers, le vin d’Argenteuil était plutôt mauvais, quoiqu'il y eût de grands crus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vins_d%27Argenteuil</t>
+          <t>Vins_d'Argenteuil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme dans toute la France, la culture du vin arrive dans le Val-d'Oise avec les Romains (vers le IVe siècle). Plus tard ce sera l'abbaye de Saint-Denis, propriétaire des domaines de la butte, qui encouragera la production intensive de vin : les moines ont besoin de vin pour dire la messe mais aussi pour boire car à l'époque, les seules boissons saines sont alcoolisées : jusqu'à la fin du XIXe siècle, du reste, on se méfiera de l'eau, boisson vectrice de problèmes intestinaux ou de maladies graves telles que la dysenterie, la fièvre typhoïde ou le choléra (la meilleure connaissance des germes, le traitement de l'eau au chlore et l'amélioration des réseaux d'évacuation des eaux usées et des égouts finiront par rendre l'eau moins dangereuse...).
 Ce que les moines ne boivent pas, ils le vendent sur le marché de Saint-Denis et peu à peu les coteaux de la butte de Cormeilles sont un des grands fournisseurs en vin de Paris et, surtout, de la Normandie et du Nord, qui n'ont pas de production.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vins_d%27Argenteuil</t>
+          <t>Vins_d'Argenteuil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Avenir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant les années 1960 et 1970, la commune d’Argenteuil s’est peuplée de manière accélérée, réduisant peu à peu la place réservée aux cultures. Bien que l'habitat soit moins dense à Cormeilles, Sannois ou La Frette, communes où le mouvement aura été le même et où peu à peu l’agriculture a laissé la place aux cités pavillonnaires. À partir des années 1980, les habitants de ces communes se sont rendu compte de ce qu’ils avaient perdu et quelques initiatives ont vu le jour : la ville de Sannois ou celle d’Argenteuil se dotent de « vignes municipales » cultivées par les services espaces-verts des municipalités — Argenteuil, d’ailleurs, vient de reprendre l’exploitation de Jacques Defresne, seul vigneron de la commune pendant les années soixante-dix, dont les enfants ne veulent pas perpétuer une tradition familiale pourtant ininterrompue depuis l’an 1342 !
 La vigne actuelle d'Argenteuil produit chaque année, depuis 1999, une cuvée de pinot noir, ainsi qu'une cuvée de Chardonnay. La vigne de Sannois cultivée par M. Emberger, technicien viticole, produit depuis 2006 un vin blanc sec issu des cépages chardonnay et pinot gris.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vins_d%27Argenteuil</t>
+          <t>Vins_d'Argenteuil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vin issu du cépage pinot noir reçoit la médaille d'or du vin rouge pour le millésime 2020, remise par le comité de coordination région Île-de-France des Confréries[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vin issu du cépage pinot noir reçoit la médaille d'or du vin rouge pour le millésime 2020, remise par le comité de coordination région Île-de-France des Confréries.
 </t>
         </is>
       </c>
